--- a/Code/Results/Cases/Case_1_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.757591503197902</v>
+        <v>5.105260970161016</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.847902681337609</v>
+        <v>7.734427766164324</v>
       </c>
       <c r="E2">
-        <v>8.118208042695215</v>
+        <v>12.87115848005571</v>
       </c>
       <c r="F2">
-        <v>29.23360068667633</v>
+        <v>39.06502231613246</v>
       </c>
       <c r="G2">
-        <v>37.49919492618831</v>
+        <v>45.34960192973936</v>
       </c>
       <c r="H2">
-        <v>12.11699242710201</v>
+        <v>18.3360737790213</v>
       </c>
       <c r="I2">
-        <v>15.48926507598325</v>
+        <v>22.97514253333708</v>
       </c>
       <c r="J2">
-        <v>5.970572415316811</v>
+        <v>10.16167643963673</v>
       </c>
       <c r="K2">
-        <v>16.21415906986038</v>
+        <v>13.37848043877065</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.38325922133538</v>
+        <v>16.7779707221353</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.427108007877612</v>
+        <v>4.994088738418792</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.702540790208733</v>
+        <v>7.724163839576789</v>
       </c>
       <c r="E3">
-        <v>8.001372312950842</v>
+        <v>12.8825408235109</v>
       </c>
       <c r="F3">
-        <v>28.62911229887129</v>
+        <v>39.08339835267538</v>
       </c>
       <c r="G3">
-        <v>36.49066742033753</v>
+        <v>45.31163704500311</v>
       </c>
       <c r="H3">
-        <v>12.0604919178076</v>
+        <v>18.37968492086603</v>
       </c>
       <c r="I3">
-        <v>15.79417486962267</v>
+        <v>23.08201075881392</v>
       </c>
       <c r="J3">
-        <v>5.995517124409994</v>
+        <v>10.18495694282955</v>
       </c>
       <c r="K3">
-        <v>15.14654183727129</v>
+        <v>13.09973595293932</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.72802833888658</v>
+        <v>16.68250135617813</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.214490343651899</v>
+        <v>4.925341264764672</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.612649248431607</v>
+        <v>7.718738657847159</v>
       </c>
       <c r="E4">
-        <v>7.933120471787708</v>
+        <v>12.89144942798554</v>
       </c>
       <c r="F4">
-        <v>28.28004909353747</v>
+        <v>39.10458166608962</v>
       </c>
       <c r="G4">
-        <v>35.90107958061847</v>
+        <v>45.30242945218601</v>
       </c>
       <c r="H4">
-        <v>12.03555980469177</v>
+        <v>18.41001702376602</v>
       </c>
       <c r="I4">
-        <v>15.98913209010627</v>
+        <v>23.15136510887202</v>
       </c>
       <c r="J4">
-        <v>6.013367144904735</v>
+        <v>10.20039090674113</v>
       </c>
       <c r="K4">
-        <v>14.45499470550441</v>
+        <v>12.9282999792479</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.31495706761806</v>
+        <v>16.62669500945713</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.125456697518042</v>
+        <v>4.897243971181653</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.575903102827785</v>
+        <v>7.716749998288769</v>
       </c>
       <c r="E5">
-        <v>7.906189868521054</v>
+        <v>12.89556282185804</v>
       </c>
       <c r="F5">
-        <v>28.14334604790815</v>
+        <v>39.11569928346631</v>
       </c>
       <c r="G5">
-        <v>35.66835890694486</v>
+        <v>45.30222053793109</v>
       </c>
       <c r="H5">
-        <v>12.02776202546873</v>
+        <v>18.42326958473431</v>
       </c>
       <c r="I5">
-        <v>16.07049696265742</v>
+        <v>23.18056821681583</v>
       </c>
       <c r="J5">
-        <v>6.021261873164399</v>
+        <v>10.20696722296785</v>
       </c>
       <c r="K5">
-        <v>14.16407161537115</v>
+        <v>12.85846688762016</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.14412365264523</v>
+        <v>16.60467866676762</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.110529997563032</v>
+        <v>4.892574683162796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.569795920697241</v>
+        <v>7.716433245879796</v>
       </c>
       <c r="E6">
-        <v>7.901771514724855</v>
+        <v>12.89627503099881</v>
       </c>
       <c r="F6">
-        <v>28.12098070887111</v>
+        <v>39.11769530660366</v>
       </c>
       <c r="G6">
-        <v>35.63017334725676</v>
+        <v>45.30239969787436</v>
       </c>
       <c r="H6">
-        <v>12.0266071808308</v>
+        <v>18.42552397911055</v>
       </c>
       <c r="I6">
-        <v>16.08412265922232</v>
+        <v>23.18547421318016</v>
       </c>
       <c r="J6">
-        <v>6.022609809403073</v>
+        <v>10.20807654853772</v>
       </c>
       <c r="K6">
-        <v>14.11521234725636</v>
+        <v>12.84687585186005</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.1156122727116</v>
+        <v>16.60106717666826</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.213299210580334</v>
+        <v>4.92496261302518</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.612154077860331</v>
+        <v>7.71871093652729</v>
       </c>
       <c r="E7">
-        <v>7.932753695829209</v>
+        <v>12.89150294639367</v>
       </c>
       <c r="F7">
-        <v>28.27818305337305</v>
+        <v>39.10472154624557</v>
       </c>
       <c r="G7">
-        <v>35.89791039729352</v>
+        <v>45.30241229479907</v>
       </c>
       <c r="H7">
-        <v>12.03544519844944</v>
+        <v>18.41019214343247</v>
       </c>
       <c r="I7">
-        <v>15.99022167219887</v>
+        <v>23.15175514224249</v>
       </c>
       <c r="J7">
-        <v>6.013471123938328</v>
+        <v>10.20047843542701</v>
       </c>
       <c r="K7">
-        <v>14.45110817276447</v>
+        <v>12.92735793627412</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.31266299281899</v>
+        <v>16.62639513002516</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.64568003588667</v>
+        <v>5.067053703045936</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.797940988702639</v>
+        <v>7.730707773057449</v>
       </c>
       <c r="E8">
-        <v>8.077203629933045</v>
+        <v>12.87468487433356</v>
       </c>
       <c r="F8">
-        <v>29.02058371334358</v>
+        <v>39.06930137497289</v>
       </c>
       <c r="G8">
-        <v>37.14535653392769</v>
+        <v>45.33358369868623</v>
       </c>
       <c r="H8">
-        <v>12.09543054680041</v>
+        <v>18.35037203086102</v>
       </c>
       <c r="I8">
-        <v>15.59277252946942</v>
+        <v>23.01121571414357</v>
       </c>
       <c r="J8">
-        <v>5.978637288399042</v>
+        <v>10.16946719254075</v>
       </c>
       <c r="K8">
-        <v>15.85348697391832</v>
+        <v>13.28248803776129</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.15967811182909</v>
+        <v>16.74448033473434</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.414971650428419</v>
+        <v>5.340130918749437</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.155371392509884</v>
+        <v>7.761116152508832</v>
       </c>
       <c r="E9">
-        <v>8.387821267770079</v>
+        <v>12.85692086686935</v>
       </c>
       <c r="F9">
-        <v>30.6517997675192</v>
+        <v>39.078533025732</v>
       </c>
       <c r="G9">
-        <v>39.82261724646847</v>
+        <v>45.50660194888193</v>
       </c>
       <c r="H9">
-        <v>12.29455750505217</v>
+        <v>18.26135008574642</v>
       </c>
       <c r="I9">
-        <v>14.87637525070139</v>
+        <v>22.76522252690975</v>
       </c>
       <c r="J9">
-        <v>5.931216621830438</v>
+        <v>10.11768441090147</v>
       </c>
       <c r="K9">
-        <v>18.32056862226055</v>
+        <v>13.97236576097373</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.83304725261918</v>
+        <v>16.99752107075498</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.930646930140759</v>
+        <v>5.556915723721876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.411622819950114</v>
+        <v>7.787547394938009</v>
       </c>
       <c r="E10">
-        <v>8.632291400919287</v>
+        <v>12.85311952728363</v>
       </c>
       <c r="F10">
-        <v>31.95700117951847</v>
+        <v>39.13339074053011</v>
       </c>
       <c r="G10">
-        <v>41.92499549888098</v>
+        <v>45.70170507620278</v>
       </c>
       <c r="H10">
-        <v>12.49604176622893</v>
+        <v>18.21329364165721</v>
       </c>
       <c r="I10">
-        <v>14.39118271271229</v>
+        <v>22.60247397107912</v>
       </c>
       <c r="J10">
-        <v>5.910263444921874</v>
+        <v>10.08512782142449</v>
       </c>
       <c r="K10">
-        <v>19.96522008523751</v>
+        <v>14.46978060538678</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.17896507694919</v>
+        <v>17.19534078114607</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.154291114197484</v>
+        <v>5.670304770050865</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.526454504609508</v>
+        <v>7.800435282214453</v>
       </c>
       <c r="E11">
-        <v>8.74695782214955</v>
+        <v>12.85339097420499</v>
       </c>
       <c r="F11">
-        <v>32.57395153976228</v>
+        <v>39.16877792949015</v>
       </c>
       <c r="G11">
-        <v>42.90996011972626</v>
+        <v>45.80510529119837</v>
       </c>
       <c r="H11">
-        <v>12.60085521131932</v>
+        <v>18.19521845484358</v>
       </c>
       <c r="I11">
-        <v>14.18019709714702</v>
+        <v>22.53232711612117</v>
       </c>
       <c r="J11">
-        <v>5.904020426931321</v>
+        <v>10.0715051703445</v>
       </c>
       <c r="K11">
-        <v>20.67811513827193</v>
+        <v>14.6929493969851</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.76251415140832</v>
+        <v>17.28765265276818</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.237397038017569</v>
+        <v>5.712503237226041</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.569664002033382</v>
+        <v>7.805437593479793</v>
       </c>
       <c r="E12">
-        <v>8.79087039411214</v>
+        <v>12.85378057908316</v>
       </c>
       <c r="F12">
-        <v>32.81092166523648</v>
+        <v>39.18367488556891</v>
       </c>
       <c r="G12">
-        <v>43.28701283675856</v>
+        <v>45.84635064031978</v>
       </c>
       <c r="H12">
-        <v>12.64253332431587</v>
+        <v>18.18891966758415</v>
       </c>
       <c r="I12">
-        <v>14.10178795721458</v>
+        <v>22.50632265381231</v>
       </c>
       <c r="J12">
-        <v>5.902153852852816</v>
+        <v>10.06651712219845</v>
       </c>
       <c r="K12">
-        <v>20.94310439054381</v>
+        <v>14.77692833383226</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.9794494991165</v>
+        <v>17.32291923259733</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.219569218719057</v>
+        <v>5.703448226492369</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.560370628740493</v>
+        <v>7.80435487055292</v>
       </c>
       <c r="E13">
-        <v>8.781391277455141</v>
+        <v>12.85368392993177</v>
       </c>
       <c r="F13">
-        <v>32.75973686671175</v>
+        <v>39.18040007081311</v>
       </c>
       <c r="G13">
-        <v>43.20562710343413</v>
+        <v>45.83737506155005</v>
       </c>
       <c r="H13">
-        <v>12.63346726668758</v>
+        <v>18.19025192331837</v>
       </c>
       <c r="I13">
-        <v>14.11860708376024</v>
+        <v>22.51189834228795</v>
       </c>
       <c r="J13">
-        <v>5.90253331527517</v>
+        <v>10.0675838054696</v>
       </c>
       <c r="K13">
-        <v>20.88625346340215</v>
+        <v>14.75886682051335</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.93290689456972</v>
+        <v>17.31531053881209</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.161160061215757</v>
+        <v>5.67379139074601</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.530015008032539</v>
+        <v>7.800844394986576</v>
       </c>
       <c r="E14">
-        <v>8.750560724977976</v>
+        <v>12.85341728454491</v>
       </c>
       <c r="F14">
-        <v>32.5933800858902</v>
+        <v>39.16997354279139</v>
       </c>
       <c r="G14">
-        <v>42.94089904406776</v>
+        <v>45.80845679090667</v>
       </c>
       <c r="H14">
-        <v>12.60424371020641</v>
+        <v>18.19468930134195</v>
       </c>
       <c r="I14">
-        <v>14.17371597778147</v>
+        <v>22.53017652028274</v>
       </c>
       <c r="J14">
-        <v>5.903856744594656</v>
+        <v>10.07109138364859</v>
       </c>
       <c r="K14">
-        <v>20.70001492218751</v>
+        <v>14.69986948005334</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.7804420359661</v>
+        <v>17.29054797982982</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.125176355599137</v>
+        <v>5.655528861363266</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.511384875182378</v>
+        <v>7.798709938056188</v>
       </c>
       <c r="E15">
-        <v>8.731739904950128</v>
+        <v>12.85329127989688</v>
       </c>
       <c r="F15">
-        <v>32.49191779480619</v>
+        <v>39.16378176285572</v>
       </c>
       <c r="G15">
-        <v>42.77927466233817</v>
+        <v>45.79101514462272</v>
       </c>
       <c r="H15">
-        <v>12.58660512861605</v>
+        <v>18.19747845643606</v>
       </c>
       <c r="I15">
-        <v>14.20766823314925</v>
+        <v>22.54144516810053</v>
       </c>
       <c r="J15">
-        <v>5.904732934925672</v>
+        <v>10.07326208160111</v>
       </c>
       <c r="K15">
-        <v>20.58529457525388</v>
+        <v>14.66366046914441</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.686529228002</v>
+        <v>17.27541986043734</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.915810145378055</v>
+        <v>5.549403041606907</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.40408109216578</v>
+        <v>7.786722334639825</v>
       </c>
       <c r="E16">
-        <v>8.624866657567404</v>
+        <v>12.85314197388928</v>
       </c>
       <c r="F16">
-        <v>31.91714927068763</v>
+        <v>39.13128775925666</v>
       </c>
       <c r="G16">
-        <v>41.86119641991152</v>
+        <v>45.69524104894511</v>
       </c>
       <c r="H16">
-        <v>12.48946486304868</v>
+        <v>18.21455121020487</v>
       </c>
       <c r="I16">
-        <v>14.40517401349567</v>
+        <v>22.60713643120046</v>
       </c>
       <c r="J16">
-        <v>5.910739683102734</v>
+        <v>10.086041971581</v>
       </c>
       <c r="K16">
-        <v>19.91792963935483</v>
+        <v>14.45512621874892</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.14025823854963</v>
+        <v>17.18935268817072</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.784560111423235</v>
+        <v>5.483001937386691</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.337789329400738</v>
+        <v>7.779588046322894</v>
       </c>
       <c r="E17">
-        <v>8.560183583779216</v>
+        <v>12.85356221482476</v>
       </c>
       <c r="F17">
-        <v>31.57049172913544</v>
+        <v>39.11402364103056</v>
       </c>
       <c r="G17">
-        <v>41.30526401056046</v>
+        <v>45.64022767169257</v>
       </c>
       <c r="H17">
-        <v>12.43331004097175</v>
+        <v>18.22599555969322</v>
       </c>
       <c r="I17">
-        <v>14.52888671931545</v>
+        <v>22.64843140295151</v>
       </c>
       <c r="J17">
-        <v>5.915283925176836</v>
+        <v>10.09418602067636</v>
       </c>
       <c r="K17">
-        <v>19.49956061459673</v>
+        <v>14.32634027182437</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.79784379087626</v>
+        <v>17.13713130484985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.708039199054062</v>
+        <v>5.449956590363348</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.299497623830772</v>
+        <v>7.775566078488792</v>
       </c>
       <c r="E18">
-        <v>8.523305125951294</v>
+        <v>12.85399230167397</v>
       </c>
       <c r="F18">
-        <v>31.37328670775747</v>
+        <v>39.10507600894829</v>
       </c>
       <c r="G18">
-        <v>40.98819716257639</v>
+        <v>45.60996525484333</v>
       </c>
       <c r="H18">
-        <v>12.40224395497521</v>
+        <v>18.23293431689193</v>
       </c>
       <c r="I18">
-        <v>14.60095277601077</v>
+        <v>22.67254918842936</v>
       </c>
       <c r="J18">
-        <v>5.918205629356979</v>
+        <v>10.09898204822986</v>
       </c>
       <c r="K18">
-        <v>19.25559981151489</v>
+        <v>14.2519781442584</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.5981875646355</v>
+        <v>17.1073150362058</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.681954132448578</v>
+        <v>5.440066166913179</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.286505643804622</v>
+        <v>7.774218373690411</v>
       </c>
       <c r="E19">
-        <v>8.5108748401375</v>
+        <v>12.85417030030481</v>
       </c>
       <c r="F19">
-        <v>31.30689148255647</v>
+        <v>39.10221527608492</v>
       </c>
       <c r="G19">
-        <v>40.88130781690818</v>
+        <v>45.59995634549211</v>
       </c>
       <c r="H19">
-        <v>12.39193433026239</v>
+        <v>18.23534480310467</v>
       </c>
       <c r="I19">
-        <v>14.62550696632748</v>
+        <v>22.68077793486652</v>
       </c>
       <c r="J19">
-        <v>5.919247040807076</v>
+        <v>10.10062510643347</v>
       </c>
       <c r="K19">
-        <v>19.17242465917778</v>
+        <v>14.22675359209361</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.5301196659503</v>
+        <v>17.09725828123635</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.798638526700373</v>
+        <v>5.490119222427582</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.344863206841939</v>
+        <v>7.780339086495282</v>
       </c>
       <c r="E20">
-        <v>8.567035565811983</v>
+        <v>12.85349798934061</v>
       </c>
       <c r="F20">
-        <v>31.60716805992361</v>
+        <v>39.11575979913475</v>
       </c>
       <c r="G20">
-        <v>41.36416590803812</v>
+        <v>45.64594123991954</v>
       </c>
       <c r="H20">
-        <v>12.43915955086148</v>
+        <v>18.22474040529904</v>
       </c>
       <c r="I20">
-        <v>14.51562255215532</v>
+        <v>22.64399760581128</v>
       </c>
       <c r="J20">
-        <v>5.914768135565523</v>
+        <v>10.09330750482655</v>
       </c>
       <c r="K20">
-        <v>19.54444022755411</v>
+        <v>14.3400801684477</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.83457410222556</v>
+        <v>17.14266775348599</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.178359273877296</v>
+        <v>5.682522540564344</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.538938821076137</v>
+        <v>7.801872216093579</v>
       </c>
       <c r="E21">
-        <v>8.759603120892031</v>
+        <v>12.85348782835255</v>
       </c>
       <c r="F21">
-        <v>32.64215219688616</v>
+        <v>39.17299548549498</v>
       </c>
       <c r="G21">
-        <v>43.01854582538332</v>
+        <v>45.81689421445576</v>
       </c>
       <c r="H21">
-        <v>12.61277266882326</v>
+        <v>18.19337110937498</v>
       </c>
       <c r="I21">
-        <v>14.15748803646739</v>
+        <v>22.52479261903462</v>
       </c>
       <c r="J21">
-        <v>5.903454314058501</v>
+        <v>10.07005649577183</v>
       </c>
       <c r="K21">
-        <v>20.75485168049494</v>
+        <v>14.71721345761936</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.82533362919921</v>
+        <v>17.29781312126695</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.417298749521244</v>
+        <v>5.803951243760771</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.664168725315136</v>
+        <v>7.816655023669392</v>
       </c>
       <c r="E22">
-        <v>8.888317242803982</v>
+        <v>12.85515246312368</v>
       </c>
       <c r="F22">
-        <v>33.33808472838008</v>
+        <v>39.21912288450719</v>
       </c>
       <c r="G22">
-        <v>44.12350094141676</v>
+        <v>45.94079363848707</v>
       </c>
       <c r="H22">
-        <v>12.7378691356662</v>
+        <v>18.17605192972983</v>
       </c>
       <c r="I22">
-        <v>13.93214423483276</v>
+        <v>22.45014119200209</v>
       </c>
       <c r="J22">
-        <v>5.898972696330857</v>
+        <v>10.05585464163872</v>
       </c>
       <c r="K22">
-        <v>21.51701890263002</v>
+        <v>14.9605663196908</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.44933797128366</v>
+        <v>17.40100554571169</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.290618955371979</v>
+        <v>5.739543577881943</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.597485429732195</v>
+        <v>7.808701018294344</v>
       </c>
       <c r="E23">
-        <v>8.819359817169008</v>
+        <v>12.85411141739676</v>
       </c>
       <c r="F23">
-        <v>32.96486013516056</v>
+        <v>39.19370745958923</v>
       </c>
       <c r="G23">
-        <v>43.5315981227904</v>
+        <v>45.87355872192212</v>
       </c>
       <c r="H23">
-        <v>12.67000671004658</v>
+        <v>18.18500385464338</v>
       </c>
       <c r="I23">
-        <v>14.05158342145317</v>
+        <v>22.4896862986476</v>
       </c>
       <c r="J23">
-        <v>5.901089527867057</v>
+        <v>10.06334355357713</v>
       </c>
       <c r="K23">
-        <v>21.11284455260918</v>
+        <v>14.83099646502895</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.11841595059103</v>
+        <v>17.34577349806842</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.792276986948768</v>
+        <v>5.486903013341864</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.341665664601461</v>
+        <v>7.77999929303966</v>
       </c>
       <c r="E24">
-        <v>8.563936822703184</v>
+        <v>12.85352643851334</v>
       </c>
       <c r="F24">
-        <v>31.59058017176683</v>
+        <v>39.11497183609418</v>
       </c>
       <c r="G24">
-        <v>41.33752842588046</v>
+        <v>45.64335388092519</v>
       </c>
       <c r="H24">
-        <v>12.43651120064086</v>
+        <v>18.22530674160609</v>
       </c>
       <c r="I24">
-        <v>14.52161635446503</v>
+        <v>22.64600095183512</v>
       </c>
       <c r="J24">
-        <v>5.91500036292912</v>
+        <v>10.09370432701467</v>
       </c>
       <c r="K24">
-        <v>19.52416086104824</v>
+        <v>14.33386935576035</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.81797704887328</v>
+        <v>17.14016407999211</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.215467297362431</v>
+        <v>5.267081067559073</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.059653658775051</v>
+        <v>7.752163538688479</v>
       </c>
       <c r="E25">
-        <v>8.300905193272149</v>
+        <v>12.86009977742192</v>
       </c>
       <c r="F25">
-        <v>30.19174426929548</v>
+        <v>39.06759476070308</v>
       </c>
       <c r="G25">
-        <v>39.0742011040814</v>
+        <v>45.44782674795888</v>
       </c>
       <c r="H25">
-        <v>12.23139251998423</v>
+        <v>18.28239346663744</v>
       </c>
       <c r="I25">
-        <v>15.0631873980763</v>
+        <v>22.82860774931985</v>
       </c>
       <c r="J25">
-        <v>5.941694343140667</v>
+        <v>10.13072802608274</v>
       </c>
       <c r="K25">
-        <v>17.68300902800684</v>
+        <v>13.78701431641618</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.31465829045456</v>
+        <v>16.92688639899168</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.105260970161016</v>
+        <v>6.757591503197946</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.734427766164324</v>
+        <v>4.847902681337615</v>
       </c>
       <c r="E2">
-        <v>12.87115848005571</v>
+        <v>8.118208042695208</v>
       </c>
       <c r="F2">
-        <v>39.06502231613246</v>
+        <v>29.23360068667629</v>
       </c>
       <c r="G2">
-        <v>45.34960192973936</v>
+        <v>37.49919492618826</v>
       </c>
       <c r="H2">
-        <v>18.3360737790213</v>
+        <v>12.11699242710201</v>
       </c>
       <c r="I2">
-        <v>22.97514253333708</v>
+        <v>15.48926507598324</v>
       </c>
       <c r="J2">
-        <v>10.16167643963673</v>
+        <v>5.970572415316808</v>
       </c>
       <c r="K2">
-        <v>13.37848043877065</v>
+        <v>16.21415906986041</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.7779707221353</v>
+        <v>13.38325922133535</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.994088738418792</v>
+        <v>6.427108007877773</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.724163839576789</v>
+        <v>4.702540790208817</v>
       </c>
       <c r="E3">
-        <v>12.8825408235109</v>
+        <v>8.001372312951037</v>
       </c>
       <c r="F3">
-        <v>39.08339835267538</v>
+        <v>28.62911229887132</v>
       </c>
       <c r="G3">
-        <v>45.31163704500311</v>
+        <v>36.49066742033744</v>
       </c>
       <c r="H3">
-        <v>18.37968492086603</v>
+        <v>12.06049191780766</v>
       </c>
       <c r="I3">
-        <v>23.08201075881392</v>
+        <v>15.79417486962258</v>
       </c>
       <c r="J3">
-        <v>10.18495694282955</v>
+        <v>5.995517124410115</v>
       </c>
       <c r="K3">
-        <v>13.09973595293932</v>
+        <v>15.14654183727131</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.68250135617813</v>
+        <v>12.7280283388866</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.925341264764672</v>
+        <v>6.214490343651851</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.718738657847159</v>
+        <v>4.612649248431675</v>
       </c>
       <c r="E4">
-        <v>12.89144942798554</v>
+        <v>7.933120471787807</v>
       </c>
       <c r="F4">
-        <v>39.10458166608962</v>
+        <v>28.28004909353765</v>
       </c>
       <c r="G4">
-        <v>45.30242945218601</v>
+        <v>35.90107958061856</v>
       </c>
       <c r="H4">
-        <v>18.41001702376602</v>
+        <v>12.03555980469193</v>
       </c>
       <c r="I4">
-        <v>23.15136510887202</v>
+        <v>15.98913209010637</v>
       </c>
       <c r="J4">
-        <v>10.20039090674113</v>
+        <v>6.013367144904803</v>
       </c>
       <c r="K4">
-        <v>12.9282999792479</v>
+        <v>14.45499470550436</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.62669500945713</v>
+        <v>12.31495706761812</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.897243971181653</v>
+        <v>6.125456697518084</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.716749998288769</v>
+        <v>4.575903102827658</v>
       </c>
       <c r="E5">
-        <v>12.89556282185804</v>
+        <v>7.906189868521056</v>
       </c>
       <c r="F5">
-        <v>39.11569928346631</v>
+        <v>28.14334604790805</v>
       </c>
       <c r="G5">
-        <v>45.30222053793109</v>
+        <v>35.66835890694492</v>
       </c>
       <c r="H5">
-        <v>18.42326958473431</v>
+        <v>12.02776202546868</v>
       </c>
       <c r="I5">
-        <v>23.18056821681583</v>
+        <v>16.07049696265742</v>
       </c>
       <c r="J5">
-        <v>10.20696722296785</v>
+        <v>6.021261873164488</v>
       </c>
       <c r="K5">
-        <v>12.85846688762016</v>
+        <v>14.16407161537117</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.60467866676762</v>
+        <v>12.14412365264524</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.892574683162796</v>
+        <v>6.110529997563038</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.716433245879796</v>
+        <v>4.569795920697282</v>
       </c>
       <c r="E6">
-        <v>12.89627503099881</v>
+        <v>7.901771514724848</v>
       </c>
       <c r="F6">
-        <v>39.11769530660366</v>
+        <v>28.12098070887116</v>
       </c>
       <c r="G6">
-        <v>45.30239969787436</v>
+        <v>35.63017334725679</v>
       </c>
       <c r="H6">
-        <v>18.42552397911055</v>
+        <v>12.02660718083082</v>
       </c>
       <c r="I6">
-        <v>23.18547421318016</v>
+        <v>16.08412265922236</v>
       </c>
       <c r="J6">
-        <v>10.20807654853772</v>
+        <v>6.022609809403039</v>
       </c>
       <c r="K6">
-        <v>12.84687585186005</v>
+        <v>14.11521234725638</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.60106717666826</v>
+        <v>12.11561227271162</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.92496261302518</v>
+        <v>6.213299210580232</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.71871093652729</v>
+        <v>4.612154077860377</v>
       </c>
       <c r="E7">
-        <v>12.89150294639367</v>
+        <v>7.932753695829158</v>
       </c>
       <c r="F7">
-        <v>39.10472154624557</v>
+        <v>28.278183053373</v>
       </c>
       <c r="G7">
-        <v>45.30241229479907</v>
+        <v>35.89791039729347</v>
       </c>
       <c r="H7">
-        <v>18.41019214343247</v>
+        <v>12.03544519844943</v>
       </c>
       <c r="I7">
-        <v>23.15175514224249</v>
+        <v>15.99022167219887</v>
       </c>
       <c r="J7">
-        <v>10.20047843542701</v>
+        <v>6.013471123938295</v>
       </c>
       <c r="K7">
-        <v>12.92735793627412</v>
+        <v>14.45110817276448</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.62639513002516</v>
+        <v>12.31266299281897</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.067053703045936</v>
+        <v>6.64568003588671</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.730707773057449</v>
+        <v>4.797940988702718</v>
       </c>
       <c r="E8">
-        <v>12.87468487433356</v>
+        <v>8.077203629933141</v>
       </c>
       <c r="F8">
-        <v>39.06930137497289</v>
+        <v>29.02058371334359</v>
       </c>
       <c r="G8">
-        <v>45.33358369868623</v>
+        <v>37.14535653392767</v>
       </c>
       <c r="H8">
-        <v>18.35037203086102</v>
+        <v>12.09543054680041</v>
       </c>
       <c r="I8">
-        <v>23.01121571414357</v>
+        <v>15.59277252946936</v>
       </c>
       <c r="J8">
-        <v>10.16946719254075</v>
+        <v>5.9786372883991</v>
       </c>
       <c r="K8">
-        <v>13.28248803776129</v>
+        <v>15.8534869739183</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.74448033473434</v>
+        <v>13.15967811182911</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.340130918749437</v>
+        <v>7.414971650428427</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.761116152508832</v>
+        <v>5.155371392509839</v>
       </c>
       <c r="E9">
-        <v>12.85692086686935</v>
+        <v>8.387821267770166</v>
       </c>
       <c r="F9">
-        <v>39.078533025732</v>
+        <v>30.65179976751917</v>
       </c>
       <c r="G9">
-        <v>45.50660194888193</v>
+        <v>39.82261724646846</v>
       </c>
       <c r="H9">
-        <v>18.26135008574642</v>
+        <v>12.29455750505214</v>
       </c>
       <c r="I9">
-        <v>22.76522252690975</v>
+        <v>14.87637525070131</v>
       </c>
       <c r="J9">
-        <v>10.11768441090147</v>
+        <v>5.931216621830528</v>
       </c>
       <c r="K9">
-        <v>13.97236576097373</v>
+        <v>18.32056862226054</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.99752107075498</v>
+        <v>14.83304725261915</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.556915723721876</v>
+        <v>7.930646930140759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.787547394938009</v>
+        <v>5.411622819950102</v>
       </c>
       <c r="E10">
-        <v>12.85311952728363</v>
+        <v>8.63229140091933</v>
       </c>
       <c r="F10">
-        <v>39.13339074053011</v>
+        <v>31.95700117951843</v>
       </c>
       <c r="G10">
-        <v>45.70170507620278</v>
+        <v>41.92499549888097</v>
       </c>
       <c r="H10">
-        <v>18.21329364165721</v>
+        <v>12.49604176622889</v>
       </c>
       <c r="I10">
-        <v>22.60247397107912</v>
+        <v>14.39118271271227</v>
       </c>
       <c r="J10">
-        <v>10.08512782142449</v>
+        <v>5.910263444921942</v>
       </c>
       <c r="K10">
-        <v>14.46978060538678</v>
+        <v>19.96522008523757</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.19534078114607</v>
+        <v>16.1789650769492</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.670304770050865</v>
+        <v>8.15429111419745</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.800435282214453</v>
+        <v>5.526454504609535</v>
       </c>
       <c r="E11">
-        <v>12.85339097420499</v>
+        <v>8.746957822149588</v>
       </c>
       <c r="F11">
-        <v>39.16877792949015</v>
+        <v>32.57395153976223</v>
       </c>
       <c r="G11">
-        <v>45.80510529119837</v>
+        <v>42.90996011972617</v>
       </c>
       <c r="H11">
-        <v>18.19521845484358</v>
+        <v>12.60085521131928</v>
       </c>
       <c r="I11">
-        <v>22.53232711612117</v>
+        <v>14.18019709714698</v>
       </c>
       <c r="J11">
-        <v>10.0715051703445</v>
+        <v>5.904020426931321</v>
       </c>
       <c r="K11">
-        <v>14.6929493969851</v>
+        <v>20.67811513827198</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.28765265276818</v>
+        <v>16.76251415140832</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.712503237226041</v>
+        <v>8.237397038017493</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.805437593479793</v>
+        <v>5.569664002033284</v>
       </c>
       <c r="E12">
-        <v>12.85378057908316</v>
+        <v>8.790870394112083</v>
       </c>
       <c r="F12">
-        <v>39.18367488556891</v>
+        <v>32.81092166523641</v>
       </c>
       <c r="G12">
-        <v>45.84635064031978</v>
+        <v>43.28701283675854</v>
       </c>
       <c r="H12">
-        <v>18.18891966758415</v>
+        <v>12.64253332431584</v>
       </c>
       <c r="I12">
-        <v>22.50632265381231</v>
+        <v>14.10178795721452</v>
       </c>
       <c r="J12">
-        <v>10.06651712219845</v>
+        <v>5.902153852852818</v>
       </c>
       <c r="K12">
-        <v>14.77692833383226</v>
+        <v>20.94310439054382</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.32291923259733</v>
+        <v>16.97944949911655</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.703448226492369</v>
+        <v>8.219569218719014</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.80435487055292</v>
+        <v>5.560370628740471</v>
       </c>
       <c r="E13">
-        <v>12.85368392993177</v>
+        <v>8.781391277455128</v>
       </c>
       <c r="F13">
-        <v>39.18040007081311</v>
+        <v>32.75973686671178</v>
       </c>
       <c r="G13">
-        <v>45.83737506155005</v>
+        <v>43.20562710343421</v>
       </c>
       <c r="H13">
-        <v>18.19025192331837</v>
+        <v>12.63346726668758</v>
       </c>
       <c r="I13">
-        <v>22.51189834228795</v>
+        <v>14.11860708376036</v>
       </c>
       <c r="J13">
-        <v>10.0675838054696</v>
+        <v>5.90253331527517</v>
       </c>
       <c r="K13">
-        <v>14.75886682051335</v>
+        <v>20.88625346340213</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.31531053881209</v>
+        <v>16.9329068945697</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.67379139074601</v>
+        <v>8.161160061215767</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.800844394986576</v>
+        <v>5.530015008032572</v>
       </c>
       <c r="E14">
-        <v>12.85341728454491</v>
+        <v>8.750560724977985</v>
       </c>
       <c r="F14">
-        <v>39.16997354279139</v>
+        <v>32.59338008589012</v>
       </c>
       <c r="G14">
-        <v>45.80845679090667</v>
+        <v>42.94089904406762</v>
       </c>
       <c r="H14">
-        <v>18.19468930134195</v>
+        <v>12.60424371020639</v>
       </c>
       <c r="I14">
-        <v>22.53017652028274</v>
+        <v>14.17371597778146</v>
       </c>
       <c r="J14">
-        <v>10.07109138364859</v>
+        <v>5.903856744594629</v>
       </c>
       <c r="K14">
-        <v>14.69986948005334</v>
+        <v>20.70001492218758</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.29054797982982</v>
+        <v>16.78044203596614</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.655528861363266</v>
+        <v>8.125176355599164</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.798709938056188</v>
+        <v>5.511384875182277</v>
       </c>
       <c r="E15">
-        <v>12.85329127989688</v>
+        <v>8.73173990495005</v>
       </c>
       <c r="F15">
-        <v>39.16378176285572</v>
+        <v>32.49191779480618</v>
       </c>
       <c r="G15">
-        <v>45.79101514462272</v>
+        <v>42.77927466233827</v>
       </c>
       <c r="H15">
-        <v>18.19747845643606</v>
+        <v>12.58660512861607</v>
       </c>
       <c r="I15">
-        <v>22.54144516810053</v>
+        <v>14.20766823314922</v>
       </c>
       <c r="J15">
-        <v>10.07326208160111</v>
+        <v>5.90473293492567</v>
       </c>
       <c r="K15">
-        <v>14.66366046914441</v>
+        <v>20.58529457525386</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.27541986043734</v>
+        <v>16.68652922800202</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.549403041606907</v>
+        <v>7.915810145377981</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.786722334639825</v>
+        <v>5.40408109216571</v>
       </c>
       <c r="E16">
-        <v>12.85314197388928</v>
+        <v>8.624866657567361</v>
       </c>
       <c r="F16">
-        <v>39.13128775925666</v>
+        <v>31.91714927068759</v>
       </c>
       <c r="G16">
-        <v>45.69524104894511</v>
+        <v>41.86119641991152</v>
       </c>
       <c r="H16">
-        <v>18.21455121020487</v>
+        <v>12.48946486304868</v>
       </c>
       <c r="I16">
-        <v>22.60713643120046</v>
+        <v>14.40517401349572</v>
       </c>
       <c r="J16">
-        <v>10.086041971581</v>
+        <v>5.910739683102708</v>
       </c>
       <c r="K16">
-        <v>14.45512621874892</v>
+        <v>19.91792963935484</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.18935268817072</v>
+        <v>16.14025823854964</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.483001937386691</v>
+        <v>7.784560111423235</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.779588046322894</v>
+        <v>5.337789329400681</v>
       </c>
       <c r="E17">
-        <v>12.85356221482476</v>
+        <v>8.560183583779223</v>
       </c>
       <c r="F17">
-        <v>39.11402364103056</v>
+        <v>31.57049172913545</v>
       </c>
       <c r="G17">
-        <v>45.64022767169257</v>
+        <v>41.30526401056049</v>
       </c>
       <c r="H17">
-        <v>18.22599555969322</v>
+        <v>12.43331004097176</v>
       </c>
       <c r="I17">
-        <v>22.64843140295151</v>
+        <v>14.52888671931552</v>
       </c>
       <c r="J17">
-        <v>10.09418602067636</v>
+        <v>5.915283925176889</v>
       </c>
       <c r="K17">
-        <v>14.32634027182437</v>
+        <v>19.49956061459672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.13713130484985</v>
+        <v>15.79784379087626</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.449956590363348</v>
+        <v>7.708039199053969</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.775566078488792</v>
+        <v>5.299497623830709</v>
       </c>
       <c r="E18">
-        <v>12.85399230167397</v>
+        <v>8.523305125951291</v>
       </c>
       <c r="F18">
-        <v>39.10507600894829</v>
+        <v>31.37328670775741</v>
       </c>
       <c r="G18">
-        <v>45.60996525484333</v>
+        <v>40.98819716257633</v>
       </c>
       <c r="H18">
-        <v>18.23293431689193</v>
+        <v>12.40224395497521</v>
       </c>
       <c r="I18">
-        <v>22.67254918842936</v>
+        <v>14.60095277601082</v>
       </c>
       <c r="J18">
-        <v>10.09898204822986</v>
+        <v>5.918205629357034</v>
       </c>
       <c r="K18">
-        <v>14.2519781442584</v>
+        <v>19.2555998115149</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.1073150362058</v>
+        <v>15.5981875646355</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.440066166913179</v>
+        <v>7.681954132448572</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.774218373690411</v>
+        <v>5.286505643804543</v>
       </c>
       <c r="E19">
-        <v>12.85417030030481</v>
+        <v>8.510874840137433</v>
       </c>
       <c r="F19">
-        <v>39.10221527608492</v>
+        <v>31.30689148255639</v>
       </c>
       <c r="G19">
-        <v>45.59995634549211</v>
+        <v>40.88130781690819</v>
       </c>
       <c r="H19">
-        <v>18.23534480310467</v>
+        <v>12.39193433026237</v>
       </c>
       <c r="I19">
-        <v>22.68077793486652</v>
+        <v>14.62550696632741</v>
       </c>
       <c r="J19">
-        <v>10.10062510643347</v>
+        <v>5.919247040807108</v>
       </c>
       <c r="K19">
-        <v>14.22675359209361</v>
+        <v>19.17242465917781</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.09725828123635</v>
+        <v>15.53011966595033</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.490119222427582</v>
+        <v>7.798638526700429</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.780339086495282</v>
+        <v>5.344863206841833</v>
       </c>
       <c r="E20">
-        <v>12.85349798934061</v>
+        <v>8.567035565811914</v>
       </c>
       <c r="F20">
-        <v>39.11575979913475</v>
+        <v>31.60716805992347</v>
       </c>
       <c r="G20">
-        <v>45.64594123991954</v>
+        <v>41.36416590803811</v>
       </c>
       <c r="H20">
-        <v>18.22474040529904</v>
+        <v>12.43915955086136</v>
       </c>
       <c r="I20">
-        <v>22.64399760581128</v>
+        <v>14.51562255215521</v>
       </c>
       <c r="J20">
-        <v>10.09330750482655</v>
+        <v>5.914768135565528</v>
       </c>
       <c r="K20">
-        <v>14.3400801684477</v>
+        <v>19.54444022755414</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.14266775348599</v>
+        <v>15.83457410222561</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.682522540564344</v>
+        <v>8.178359273877295</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.801872216093579</v>
+        <v>5.538938821076198</v>
       </c>
       <c r="E21">
-        <v>12.85348782835255</v>
+        <v>8.75960312089212</v>
       </c>
       <c r="F21">
-        <v>39.17299548549498</v>
+        <v>32.64215219688617</v>
       </c>
       <c r="G21">
-        <v>45.81689421445576</v>
+        <v>43.01854582538335</v>
       </c>
       <c r="H21">
-        <v>18.19337110937498</v>
+        <v>12.61277266882328</v>
       </c>
       <c r="I21">
-        <v>22.52479261903462</v>
+        <v>14.15748803646734</v>
       </c>
       <c r="J21">
-        <v>10.07005649577183</v>
+        <v>5.903454314058586</v>
       </c>
       <c r="K21">
-        <v>14.71721345761936</v>
+        <v>20.75485168049498</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.29781312126695</v>
+        <v>16.8253336291992</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.803951243760771</v>
+        <v>8.417298749521285</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.816655023669392</v>
+        <v>5.664168725315127</v>
       </c>
       <c r="E22">
-        <v>12.85515246312368</v>
+        <v>8.888317242803955</v>
       </c>
       <c r="F22">
-        <v>39.21912288450719</v>
+        <v>33.33808472838014</v>
       </c>
       <c r="G22">
-        <v>45.94079363848707</v>
+        <v>44.12350094141686</v>
       </c>
       <c r="H22">
-        <v>18.17605192972983</v>
+        <v>12.73786913566622</v>
       </c>
       <c r="I22">
-        <v>22.45014119200209</v>
+        <v>13.93214423483278</v>
       </c>
       <c r="J22">
-        <v>10.05585464163872</v>
+        <v>5.898972696330785</v>
       </c>
       <c r="K22">
-        <v>14.9605663196908</v>
+        <v>21.51701890263006</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.40100554571169</v>
+        <v>17.44933797128369</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.739543577881943</v>
+        <v>8.290618955371949</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.808701018294344</v>
+        <v>5.59748542973226</v>
       </c>
       <c r="E23">
-        <v>12.85411141739676</v>
+        <v>8.819359817169021</v>
       </c>
       <c r="F23">
-        <v>39.19370745958923</v>
+        <v>32.96486013516058</v>
       </c>
       <c r="G23">
-        <v>45.87355872192212</v>
+        <v>43.53159812279041</v>
       </c>
       <c r="H23">
-        <v>18.18500385464338</v>
+        <v>12.67000671004659</v>
       </c>
       <c r="I23">
-        <v>22.4896862986476</v>
+        <v>14.05158342145321</v>
       </c>
       <c r="J23">
-        <v>10.06334355357713</v>
+        <v>5.901089527867009</v>
       </c>
       <c r="K23">
-        <v>14.83099646502895</v>
+        <v>21.11284455260917</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.34577349806842</v>
+        <v>17.11841595059104</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.486903013341864</v>
+        <v>7.792276986948782</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.77999929303966</v>
+        <v>5.341665664601318</v>
       </c>
       <c r="E24">
-        <v>12.85352643851334</v>
+        <v>8.56393682270307</v>
       </c>
       <c r="F24">
-        <v>39.11497183609418</v>
+        <v>31.59058017176678</v>
       </c>
       <c r="G24">
-        <v>45.64335388092519</v>
+        <v>41.33752842588051</v>
       </c>
       <c r="H24">
-        <v>18.22530674160609</v>
+        <v>12.43651120064083</v>
       </c>
       <c r="I24">
-        <v>22.64600095183512</v>
+        <v>14.52161635446502</v>
       </c>
       <c r="J24">
-        <v>10.09370432701467</v>
+        <v>5.915000362929098</v>
       </c>
       <c r="K24">
-        <v>14.33386935576035</v>
+        <v>19.52416086104828</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.14016407999211</v>
+        <v>15.81797704887332</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.267081067559073</v>
+        <v>7.215467297362432</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.752163538688479</v>
+        <v>5.059653658774987</v>
       </c>
       <c r="E25">
-        <v>12.86009977742192</v>
+        <v>8.300905193272156</v>
       </c>
       <c r="F25">
-        <v>39.06759476070308</v>
+        <v>30.19174426929542</v>
       </c>
       <c r="G25">
-        <v>45.44782674795888</v>
+        <v>39.0742011040814</v>
       </c>
       <c r="H25">
-        <v>18.28239346663744</v>
+        <v>12.2313925199842</v>
       </c>
       <c r="I25">
-        <v>22.82860774931985</v>
+        <v>15.06318739807633</v>
       </c>
       <c r="J25">
-        <v>10.13072802608274</v>
+        <v>5.941694343140725</v>
       </c>
       <c r="K25">
-        <v>13.78701431641618</v>
+        <v>17.68300902800688</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.92688639899168</v>
+        <v>14.31465829045455</v>
       </c>
       <c r="N25">
         <v>0</v>
